--- a/marks.xlsx
+++ b/marks.xlsx
@@ -1,41 +1,140 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joel.kuhl\Documents\tutorials\tut-vba-py\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7DC168-D9A2-4F6D-B645-AABC09198AC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="1305" windowWidth="29040" windowHeight="17640" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="31965" yWindow="7350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Students</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Physics</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Literature</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Student 1</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Student 2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Student 3</t>
+  </si>
+  <si>
+    <t>Student 4</t>
+  </si>
+  <si>
+    <t>Student 5</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Student 6</t>
+  </si>
+  <si>
+    <t>Student 7</t>
+  </si>
+  <si>
+    <t>Student 8</t>
+  </si>
+  <si>
+    <t>Student 9</t>
+  </si>
+  <si>
+    <t>Student 10</t>
+  </si>
+  <si>
+    <t>Student 11</t>
+  </si>
+  <si>
+    <t>Student 12</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,87 +153,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -434,561 +474,481 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Sheet1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>History</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>Geography</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Maths</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>Biology</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>Physics</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>Chemistry</t>
-        </is>
-      </c>
-      <c r="J1" s="2" t="inlineStr">
-        <is>
-          <t>Literature</t>
-        </is>
-      </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Student 1</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="n">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="3">
         <v>38</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="3">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="3">
         <v>64</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="3">
         <v>15</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="3">
         <v>54</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="3">
         <v>78</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="J2" s="3">
         <v>47</v>
       </c>
       <c r="K2">
-        <f>SUM(D2:J2)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="n">
+        <f t="shared" ref="K2:K13" si="0">SUM(D2:J2)</f>
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Student 2</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
         <v>91</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>47</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>21</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>58</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>17</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>64</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="3">
         <v>75</v>
       </c>
       <c r="K3">
-        <f>SUM(D3:J3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Student 3</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
         <v>63</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>35</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>58</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>38</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>48</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>16</v>
       </c>
       <c r="K4">
-        <f>SUM(D4:J4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Student 4</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3">
         <v>64</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>70</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>37</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>76</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>67</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>35</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>92</v>
       </c>
       <c r="K5">
-        <f>SUM(D5:J5)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Student 5</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n">
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
         <v>59</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>93</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>99</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>65</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>32</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="3">
         <v>41</v>
       </c>
       <c r="K6">
-        <f>SUM(D6:J6)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Student 6</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
         <v>99</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>96</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>80</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>43</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>77</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="3">
         <v>58</v>
       </c>
       <c r="K7">
-        <f>SUM(D7:J7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Student 7</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
         <v>82</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>78</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>64</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>38</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>48</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>79</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>16</v>
       </c>
       <c r="K8">
-        <f>SUM(D8:J8)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Student 8</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
         <v>76</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>64</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>89</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>22</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>88</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="3">
         <v>82</v>
       </c>
       <c r="K9">
-        <f>SUM(D9:J9)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Student 9</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="D10" s="3" t="n">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3">
         <v>58</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>35</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>66</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3">
         <v>49</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>79</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>42</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="3">
         <v>47</v>
       </c>
       <c r="K10">
-        <f>SUM(D10:J10)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Student 10</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="3">
         <v>51</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>99</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="3">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>73</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>45</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>29</v>
       </c>
       <c r="K11">
-        <f>SUM(D11:J11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Student 11</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="3">
         <v>51</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>33</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>62</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="3">
         <v>84</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>64</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>73</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="3">
         <v>91</v>
       </c>
       <c r="K12">
-        <f>SUM(D12:J12)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
+        <f t="shared" si="0"/>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Student 12</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
         <v>83</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>94</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>21</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3">
         <v>93</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>91</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>80</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>80</v>
       </c>
       <c r="K13">
-        <f>SUM(D13:J13)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>hello there</t>
-        </is>
+        <f t="shared" si="0"/>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
